--- a/CFO_report.xlsx
+++ b/CFO_report.xlsx
@@ -171,7 +171,7 @@
           <t>RMS Renewal</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>SCCB New</t>
         </is>
@@ -371,6 +371,11 @@
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
